--- a/WSC/Test Report/SLCM/WSC SLCM_Academics_Mentor - Mentee Allocation.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Academics_Mentor - Mentee Allocation.xlsx
@@ -163,7 +163,7 @@
     <t>Test Case Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Mentor Allocation is a process in which Mentors (Instructors) are allocated to different student groups or students on various basis. It can either be a hostel mentor allocation or program wise allocation. </t>
+    <t xml:space="preserve">Mentor Allocation is a process in which Mentors (Trainers) are allocated to different student groups or students on various basis. It can either be a hostel mentor allocation or program wise allocation. </t>
   </si>
   <si>
     <t>Created By</t>
@@ -194,7 +194,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123</t>
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Student - student@gmail.com,   PW: erp@123
+Trainer:-trainer@gmail.com,   PW: erp@123</t>
   </si>
   <si>
     <t>The page should open with all the generic buttons and fields as a normal application behavior</t>
@@ -203,7 +205,7 @@
     <t xml:space="preserve">Student </t>
   </si>
   <si>
-    <t>Instructor</t>
+    <t>Trainer</t>
   </si>
   <si>
     <t>Academic Year</t>
@@ -602,12 +604,6 @@
     <t>User should be able to login to WSC application. and should sucessfully navigate to Academics &gt; Mentor-Mentee page &gt; Communication</t>
   </si>
   <si>
-    <t>User Id:-Administrator Pwd:-wsc@123</t>
-  </si>
-  <si>
-    <t>URL: erp.worldskillcenter.org</t>
-  </si>
-  <si>
     <t>Mentor Allocation</t>
   </si>
   <si>
@@ -743,7 +739,10 @@
     <t>Mentor- mentee module is not showing on trainer page</t>
   </si>
   <si>
-    <t>As per discussed with developer, this is  prioriy 2 task. they will put it later</t>
+    <t>Suspended</t>
+  </si>
+  <si>
+    <t>As per discussion with developer, this is  prioriy 2 task. they will put it later</t>
   </si>
   <si>
     <t xml:space="preserve">Sucessfully login is done and homepage is  visible to the user </t>
@@ -805,6 +804,9 @@
   </si>
   <si>
     <t>User should be able to login to WSC application.</t>
+  </si>
+  <si>
+    <t>User Id:-Administrator Pwd:-wsc@123</t>
   </si>
   <si>
     <t>Verify the Notification for the Mentor-Mentee module.</t>
@@ -1293,10 +1295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1529,7 +1531,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1551,12 +1553,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDFCBA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,16 +1988,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2010,7 +2006,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2034,16 +2030,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2052,90 +2048,90 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2255,17 +2251,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2342,10 +2344,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2364,17 +2366,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2406,6 +2405,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2413,6 +2413,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2804,38 +2813,38 @@
   <sheetData>
     <row r="1" s="25" customFormat="1"/>
     <row r="2" s="25" customFormat="1" ht="21" spans="1:5">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" s="25" customFormat="1"/>
     <row r="4" s="25" customFormat="1" ht="150" spans="1:12">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" s="25" customFormat="1" spans="2:12">
       <c r="B5" s="29"/>
@@ -2868,28 +2877,28 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="86" customWidth="1"/>
-    <col min="2" max="2" width="67" style="86" customWidth="1"/>
-    <col min="3" max="3" width="73.1428571428571" style="86" customWidth="1"/>
-    <col min="4" max="4" width="58.1428571428571" style="86" customWidth="1"/>
-    <col min="5" max="5" width="22" style="86" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" style="86" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="86"/>
+    <col min="1" max="1" width="18.7142857142857" style="88" customWidth="1"/>
+    <col min="2" max="2" width="67" style="88" customWidth="1"/>
+    <col min="3" max="3" width="73.1428571428571" style="88" customWidth="1"/>
+    <col min="4" max="4" width="58.1428571428571" style="88" customWidth="1"/>
+    <col min="5" max="5" width="22" style="88" customWidth="1"/>
+    <col min="6" max="6" width="10.2857142857143" style="88" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" s="86" customFormat="1" ht="52" customHeight="1" spans="1:7">
-      <c r="A1" s="88" t="s">
+    <row r="1" s="88" customFormat="1" ht="52" customHeight="1" spans="1:7">
+      <c r="A1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="53" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="50" t="s">
@@ -2899,263 +2908,262 @@
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
     </row>
-    <row r="2" s="86" customFormat="1" spans="1:7">
-      <c r="A2" s="88" t="s">
+    <row r="2" s="88" customFormat="1" spans="1:7">
+      <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" s="86" customFormat="1" spans="1:6">
-      <c r="A6" s="88" t="s">
+    <row r="6" s="88" customFormat="1" spans="1:6">
+      <c r="A6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-    </row>
-    <row r="7" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A7" s="89">
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+    </row>
+    <row r="7" s="88" customFormat="1" ht="75" spans="1:6">
+      <c r="A7" s="90">
         <v>1</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91" t="s">
+      <c r="C7" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-    </row>
-    <row r="8" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A8" s="89">
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+    </row>
+    <row r="8" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A8" s="90">
         <v>2</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-    </row>
-    <row r="9" s="86" customFormat="1" spans="1:2">
-      <c r="A9" s="89">
+      <c r="C8" s="92"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+    </row>
+    <row r="9" s="88" customFormat="1" spans="1:2">
+      <c r="A9" s="90">
         <v>3</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="94" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="86" customFormat="1" spans="1:7">
-      <c r="A10" s="89">
+    <row r="10" s="88" customFormat="1" spans="1:7">
+      <c r="A10" s="90">
         <v>4</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-    </row>
-    <row r="11" s="86" customFormat="1" spans="1:7">
-      <c r="A11" s="89">
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+    </row>
+    <row r="11" s="88" customFormat="1" spans="1:7">
+      <c r="A11" s="90">
         <v>5</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-    </row>
-    <row r="12" s="86" customFormat="1" spans="1:7">
-      <c r="A12" s="89">
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+    </row>
+    <row r="12" s="88" customFormat="1" spans="1:7">
+      <c r="A12" s="90">
         <v>6</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-    </row>
-    <row r="13" s="86" customFormat="1" spans="1:7">
-      <c r="A13" s="89">
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+    </row>
+    <row r="13" s="88" customFormat="1" spans="1:7">
+      <c r="A13" s="90">
         <v>7</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-    </row>
-    <row r="14" s="86" customFormat="1" spans="1:7">
-      <c r="A14" s="89">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+    </row>
+    <row r="14" s="88" customFormat="1" spans="1:7">
+      <c r="A14" s="90">
         <v>8</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-    </row>
-    <row r="15" s="86" customFormat="1" spans="3:7">
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-    </row>
-    <row r="16" s="86" customFormat="1" spans="3:7">
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-    </row>
-    <row r="17" s="86" customFormat="1" spans="1:7">
-      <c r="A17" s="88" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+    </row>
+    <row r="15" s="88" customFormat="1" spans="3:7">
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+    </row>
+    <row r="16" s="88" customFormat="1" spans="3:7">
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+    </row>
+    <row r="17" s="88" customFormat="1" spans="1:7">
+      <c r="A17" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-    </row>
-    <row r="18" s="86" customFormat="1" spans="1:7">
-      <c r="A18" s="98">
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+    </row>
+    <row r="18" s="88" customFormat="1" spans="1:7">
+      <c r="A18" s="99">
         <v>1</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-    </row>
-    <row r="19" s="86" customFormat="1" spans="1:7">
-      <c r="A19" s="100">
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+    </row>
+    <row r="19" s="88" customFormat="1" spans="1:7">
+      <c r="A19" s="101">
         <v>2</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-    </row>
-    <row r="20" s="86" customFormat="1" spans="1:2">
-      <c r="A20" s="100">
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+    </row>
+    <row r="20" s="88" customFormat="1" spans="1:2">
+      <c r="A20" s="101">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" s="86" customFormat="1" spans="1:2">
-      <c r="A21" s="100">
+    <row r="21" s="88" customFormat="1" spans="1:2">
+      <c r="A21" s="101">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" s="86" customFormat="1" spans="1:2">
-      <c r="A22" s="100">
+    <row r="22" s="88" customFormat="1" spans="1:2">
+      <c r="A22" s="101">
         <v>5</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" s="86" customFormat="1" spans="1:2">
-      <c r="A23" s="100">
+    <row r="23" s="88" customFormat="1" spans="1:2">
+      <c r="A23" s="101">
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" s="86" customFormat="1" spans="1:2">
-      <c r="A24" s="100">
+    <row r="24" s="88" customFormat="1" spans="1:2">
+      <c r="A24" s="101">
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" s="86" customFormat="1" spans="7:7">
-      <c r="G25" s="90"/>
-    </row>
-    <row r="26" s="87" customFormat="1" spans="1:7">
-      <c r="A26" s="101" t="s">
+    <row r="25" s="88" customFormat="1" spans="7:7">
+      <c r="G25" s="92"/>
+    </row>
+    <row r="26" s="89" customFormat="1" spans="1:7">
+      <c r="A26" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="88" t="s">
+      <c r="E26" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="88" t="s">
+      <c r="F26" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="102"/>
-    </row>
-    <row r="27" s="86" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="103">
+      <c r="G26" s="103"/>
+    </row>
+    <row r="27" s="88" customFormat="1" ht="30" spans="1:7">
+      <c r="A27" s="104">
         <v>1</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="64" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="50" t="s">
@@ -3164,35 +3172,35 @@
       <c r="D27" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="105"/>
-      <c r="G27" s="90"/>
-    </row>
-    <row r="28" s="86" customFormat="1" spans="1:6">
-      <c r="A28" s="89">
+      <c r="F27" s="106"/>
+      <c r="G27" s="92"/>
+    </row>
+    <row r="28" s="88" customFormat="1" spans="1:6">
+      <c r="A28" s="90">
         <v>2</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="92"/>
-    </row>
-    <row r="29" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="106">
+      <c r="F28" s="107"/>
+    </row>
+    <row r="29" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="108">
         <v>3</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="69" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="49" t="s">
@@ -3201,14 +3209,14 @@
       <c r="D29" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="104" t="s">
+      <c r="E29" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="92"/>
-    </row>
-    <row r="30" s="86" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A30" s="107"/>
-      <c r="B30" s="67" t="s">
+      <c r="F29" s="107"/>
+    </row>
+    <row r="30" s="88" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A30" s="109"/>
+      <c r="B30" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="50" t="s">
@@ -3217,16 +3225,16 @@
       <c r="D30" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="104" t="s">
+      <c r="E30" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="92"/>
-    </row>
-    <row r="31" s="86" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A31" s="89">
+      <c r="F30" s="107"/>
+    </row>
+    <row r="31" s="88" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A31" s="90">
         <v>4</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="69" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="50" t="s">
@@ -3235,13 +3243,13 @@
       <c r="D31" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="104" t="s">
+      <c r="E31" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="92"/>
-    </row>
-    <row r="32" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A32" s="89">
+      <c r="F31" s="107"/>
+    </row>
+    <row r="32" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A32" s="90">
         <v>5</v>
       </c>
       <c r="B32" s="49" t="s">
@@ -3253,13 +3261,13 @@
       <c r="D32" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="E32" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="92"/>
-    </row>
-    <row r="33" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="89">
+      <c r="F32" s="107"/>
+    </row>
+    <row r="33" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="90">
         <v>6</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -3271,13 +3279,13 @@
       <c r="D33" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="104" t="s">
+      <c r="E33" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="92"/>
-    </row>
-    <row r="34" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="89">
+      <c r="F33" s="107"/>
+    </row>
+    <row r="34" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="90">
         <v>7</v>
       </c>
       <c r="B34" s="49" t="s">
@@ -3289,13 +3297,13 @@
       <c r="D34" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="108"/>
-    </row>
-    <row r="35" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A35" s="106">
+      <c r="F34" s="110"/>
+    </row>
+    <row r="35" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A35" s="108">
         <v>8</v>
       </c>
       <c r="B35" s="49" t="s">
@@ -3307,13 +3315,13 @@
       <c r="D35" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="104" t="s">
+      <c r="E35" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="108"/>
-    </row>
-    <row r="36" s="86" customFormat="1" spans="1:6">
-      <c r="A36" s="107"/>
+      <c r="F35" s="110"/>
+    </row>
+    <row r="36" s="88" customFormat="1" spans="1:6">
+      <c r="A36" s="109"/>
       <c r="B36" s="49" t="s">
         <v>65</v>
       </c>
@@ -3323,13 +3331,13 @@
       <c r="D36" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="104" t="s">
+      <c r="E36" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="108"/>
-    </row>
-    <row r="37" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A37" s="106">
+      <c r="F36" s="110"/>
+    </row>
+    <row r="37" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A37" s="108">
         <v>9</v>
       </c>
       <c r="B37" s="49" t="s">
@@ -3341,13 +3349,13 @@
       <c r="D37" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="104" t="s">
+      <c r="E37" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="108"/>
-    </row>
-    <row r="38" s="86" customFormat="1" spans="1:6">
-      <c r="A38" s="107"/>
+      <c r="F37" s="110"/>
+    </row>
+    <row r="38" s="88" customFormat="1" spans="1:6">
+      <c r="A38" s="109"/>
       <c r="B38" s="49" t="s">
         <v>71</v>
       </c>
@@ -3357,13 +3365,13 @@
       <c r="D38" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="104" t="s">
+      <c r="E38" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="108"/>
-    </row>
-    <row r="39" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A39" s="89">
+      <c r="F38" s="110"/>
+    </row>
+    <row r="39" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A39" s="90">
         <v>10</v>
       </c>
       <c r="B39" s="49" t="s">
@@ -3375,13 +3383,13 @@
       <c r="D39" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="104" t="s">
+      <c r="E39" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="108"/>
-    </row>
-    <row r="40" s="86" customFormat="1" spans="1:6">
-      <c r="A40" s="89">
+      <c r="F39" s="110"/>
+    </row>
+    <row r="40" s="88" customFormat="1" spans="1:6">
+      <c r="A40" s="90">
         <v>11</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -3393,57 +3401,57 @@
       <c r="D40" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="108"/>
-    </row>
-    <row r="41" s="86" customFormat="1" spans="1:6">
-      <c r="A41" s="89"/>
+      <c r="F40" s="110"/>
+    </row>
+    <row r="41" s="88" customFormat="1" spans="1:6">
+      <c r="A41" s="90"/>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="108"/>
-    </row>
-    <row r="42" s="86" customFormat="1" spans="1:6">
-      <c r="A42" s="89"/>
-      <c r="B42" s="48" t="s">
+      <c r="D41" s="107"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="110"/>
+    </row>
+    <row r="42" s="88" customFormat="1" spans="1:6">
+      <c r="A42" s="90"/>
+      <c r="B42" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="108"/>
-    </row>
-    <row r="43" s="86" customFormat="1" spans="1:6">
-      <c r="A43" s="89"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="113"/>
+    </row>
+    <row r="43" s="88" customFormat="1" spans="1:6">
+      <c r="A43" s="90"/>
       <c r="B43" s="50"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-    </row>
-    <row r="44" s="86" customFormat="1" spans="1:6">
-      <c r="A44" s="89">
+      <c r="C43" s="90"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+    </row>
+    <row r="44" s="88" customFormat="1" spans="1:6">
+      <c r="A44" s="90">
         <v>12</v>
       </c>
       <c r="B44" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="C44" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="89" t="s">
+      <c r="D44" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="104" t="s">
+      <c r="E44" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="108"/>
-    </row>
-    <row r="45" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="89">
+      <c r="F44" s="110"/>
+    </row>
+    <row r="45" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A45" s="90">
         <v>13</v>
       </c>
       <c r="B45" s="49" t="s">
@@ -3455,31 +3463,31 @@
       <c r="D45" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="104" t="s">
+      <c r="E45" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="108"/>
-    </row>
-    <row r="46" s="86" customFormat="1" spans="1:6">
-      <c r="A46" s="89">
+      <c r="F45" s="110"/>
+    </row>
+    <row r="46" s="88" customFormat="1" spans="1:6">
+      <c r="A46" s="90">
         <v>14</v>
       </c>
       <c r="B46" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="89" t="s">
+      <c r="D46" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="104" t="s">
+      <c r="E46" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="108"/>
-    </row>
-    <row r="47" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A47" s="89">
+      <c r="F46" s="110"/>
+    </row>
+    <row r="47" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A47" s="90">
         <v>15</v>
       </c>
       <c r="B47" s="49" t="s">
@@ -3491,13 +3499,13 @@
       <c r="D47" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="104" t="s">
+      <c r="E47" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="108"/>
-    </row>
-    <row r="48" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A48" s="89">
+      <c r="F47" s="110"/>
+    </row>
+    <row r="48" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A48" s="90">
         <v>16</v>
       </c>
       <c r="B48" s="49" t="s">
@@ -3509,13 +3517,13 @@
       <c r="D48" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E48" s="104" t="s">
+      <c r="E48" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="108"/>
-    </row>
-    <row r="49" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A49" s="89">
+      <c r="F48" s="110"/>
+    </row>
+    <row r="49" s="88" customFormat="1" ht="45" spans="1:6">
+      <c r="A49" s="90">
         <v>17</v>
       </c>
       <c r="B49" s="49" t="s">
@@ -3527,13 +3535,13 @@
       <c r="D49" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="104" t="s">
+      <c r="E49" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="108"/>
-    </row>
-    <row r="50" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A50" s="89">
+      <c r="F49" s="110"/>
+    </row>
+    <row r="50" s="88" customFormat="1" ht="45" spans="1:6">
+      <c r="A50" s="90">
         <v>18</v>
       </c>
       <c r="B50" s="49" t="s">
@@ -3545,13 +3553,13 @@
       <c r="D50" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="104" t="s">
+      <c r="E50" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="108"/>
-    </row>
-    <row r="51" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="89">
+      <c r="F50" s="110"/>
+    </row>
+    <row r="51" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A51" s="90">
         <v>19</v>
       </c>
       <c r="B51" s="49" t="s">
@@ -3563,13 +3571,13 @@
       <c r="D51" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="104" t="s">
+      <c r="E51" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="108"/>
-    </row>
-    <row r="52" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A52" s="89">
+      <c r="F51" s="110"/>
+    </row>
+    <row r="52" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A52" s="90">
         <v>20</v>
       </c>
       <c r="B52" s="49" t="s">
@@ -3581,13 +3589,13 @@
       <c r="D52" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="104" t="s">
+      <c r="E52" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="108"/>
-    </row>
-    <row r="53" s="86" customFormat="1" ht="45" spans="1:6">
-      <c r="A53" s="89">
+      <c r="F52" s="110"/>
+    </row>
+    <row r="53" s="88" customFormat="1" ht="45" spans="1:6">
+      <c r="A53" s="90">
         <v>21</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -3599,110 +3607,110 @@
       <c r="D53" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="104" t="s">
+      <c r="E53" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="108"/>
-    </row>
-    <row r="54" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A54" s="89">
+      <c r="F53" s="110"/>
+    </row>
+    <row r="54" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A54" s="90">
         <v>22</v>
       </c>
-      <c r="B54" s="109" t="s">
+      <c r="B54" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="70" t="s">
+      <c r="D54" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E54" s="104" t="s">
+      <c r="E54" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="108"/>
-    </row>
-    <row r="55" s="86" customFormat="1" spans="1:6">
-      <c r="A55" s="110"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-    </row>
-    <row r="56" s="86" customFormat="1" spans="1:6">
-      <c r="A56" s="110"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-    </row>
-    <row r="57" s="86" customFormat="1" spans="1:6">
-      <c r="A57" s="114" t="s">
+      <c r="F54" s="110"/>
+    </row>
+    <row r="55" s="88" customFormat="1" spans="1:6">
+      <c r="A55" s="115"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+    </row>
+    <row r="56" s="88" customFormat="1" spans="1:6">
+      <c r="A56" s="115"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+    </row>
+    <row r="57" s="88" customFormat="1" spans="1:6">
+      <c r="A57" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-    </row>
-    <row r="58" s="86" customFormat="1" ht="60" spans="1:6">
-      <c r="A58" s="116">
+      <c r="B57" s="120"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+    </row>
+    <row r="58" s="88" customFormat="1" ht="60" spans="1:6">
+      <c r="A58" s="121">
         <v>23</v>
       </c>
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="104" t="s">
+      <c r="E58" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A59" s="116">
+    <row r="59" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A59" s="121">
         <v>24</v>
       </c>
-      <c r="B59" s="78" t="s">
+      <c r="B59" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="104" t="s">
+      <c r="E59" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A60" s="117">
+    <row r="60" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A60" s="122">
         <v>25</v>
       </c>
-      <c r="B60" s="78" t="s">
+      <c r="B60" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="D60" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="104" t="s">
+      <c r="E60" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" s="86" customFormat="1" spans="1:6">
+    <row r="61" s="88" customFormat="1" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -3710,7 +3718,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" s="86" customFormat="1" spans="1:6">
+    <row r="62" s="88" customFormat="1" spans="1:6">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3718,179 +3726,180 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" s="86" customFormat="1" spans="1:6">
-      <c r="A63" s="118" t="s">
+    <row r="63" s="88" customFormat="1" spans="1:6">
+      <c r="A63" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="B63" s="118" t="s">
+      <c r="B63" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="118" t="s">
+      <c r="C63" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="118" t="s">
+      <c r="D63" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="E63" s="119" t="s">
+      <c r="E63" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="119" t="s">
+      <c r="F63" s="124" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" s="86" customFormat="1" ht="30" spans="1:6">
-      <c r="A64" s="120">
+    <row r="64" s="88" customFormat="1" ht="30" spans="1:6">
+      <c r="A64" s="125">
         <v>26</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D64" s="83" t="s">
+      <c r="D64" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="104" t="s">
+      <c r="E64" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="121"/>
-    </row>
-    <row r="65" s="86" customFormat="1" ht="45" spans="1:6">
+      <c r="F64" s="126"/>
+    </row>
+    <row r="65" s="88" customFormat="1" ht="45" spans="1:6">
       <c r="A65" s="7"/>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="E65" s="104" t="s">
+      <c r="E65" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" s="86" customFormat="1" ht="30" spans="1:6">
+    <row r="66" s="88" customFormat="1" ht="30" spans="1:6">
       <c r="A66" s="7"/>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="104" t="s">
+      <c r="E66" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" s="86" customFormat="1" ht="30" spans="1:6">
+    <row r="67" s="88" customFormat="1" ht="30" spans="1:6">
       <c r="A67" s="7">
         <v>27</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="53" t="s">
+      <c r="D67" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="E67" s="104" t="s">
+      <c r="E67" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" s="86" customFormat="1" ht="45" spans="1:6">
+    <row r="68" s="88" customFormat="1" ht="45" spans="1:6">
       <c r="A68" s="7"/>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="E68" s="104" t="s">
+      <c r="E68" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" s="86" customFormat="1" ht="30" spans="1:6">
+    <row r="69" s="88" customFormat="1" ht="30" spans="1:6">
       <c r="A69" s="7"/>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D69" s="53" t="s">
+      <c r="D69" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="104" t="s">
+      <c r="E69" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" s="86" customFormat="1" ht="30" spans="1:6">
+    <row r="70" s="88" customFormat="1" ht="30" spans="1:6">
       <c r="A70" s="7">
         <v>28</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="D70" s="53" t="s">
+      <c r="D70" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="104" t="s">
+      <c r="E70" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" s="86" customFormat="1" ht="45" spans="1:6">
+    <row r="71" s="88" customFormat="1" ht="45" spans="1:6">
       <c r="A71" s="7"/>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="104" t="s">
+      <c r="E71" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" s="86" customFormat="1" ht="30" spans="1:6">
+    <row r="72" s="88" customFormat="1" ht="30" spans="1:6">
       <c r="A72" s="7"/>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="53" t="s">
+      <c r="D72" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="104" t="s">
+      <c r="E72" s="105" t="s">
         <v>43</v>
       </c>
       <c r="F72" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B42:F42"/>
     <mergeCell ref="A57:F57"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A35:A36"/>
@@ -3910,12 +3919,12 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.2857142857143" style="46" customWidth="1"/>
+    <col min="1" max="1" width="13.4285714285714" style="46" customWidth="1"/>
     <col min="2" max="2" width="43" style="46" customWidth="1"/>
     <col min="3" max="3" width="69.1428571428571" style="46" customWidth="1"/>
     <col min="4" max="4" width="62" style="46" customWidth="1"/>
@@ -3960,36 +3969,37 @@
       <c r="A3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="51" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" s="46" customFormat="1" spans="1:6">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="C6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="D6" s="46"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" s="46" customFormat="1" ht="75" spans="1:6">
       <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
+      <c r="C7" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" s="46" customFormat="1" ht="45" spans="1:6">
       <c r="A8" s="49">
@@ -3998,18 +4008,16 @@
       <c r="B8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" s="46" customFormat="1" spans="1:2">
       <c r="A9" s="49">
         <v>3</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="57" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4017,28 +4025,28 @@
       <c r="A10" s="49">
         <v>4</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" s="46" customFormat="1" spans="3:7">
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" s="46" customFormat="1" spans="3:7">
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" s="46" customFormat="1" spans="1:7">
       <c r="A13" s="48" t="s">
@@ -4047,40 +4055,40 @@
       <c r="B13" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" s="46" customFormat="1" spans="1:7">
-      <c r="A14" s="57">
+      <c r="A14" s="59">
         <v>1</v>
       </c>
-      <c r="B14" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="B14" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" s="46" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="59">
+      <c r="A15" s="61">
         <v>2</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+      <c r="B15" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" s="46" customFormat="1" ht="30" spans="1:2">
-      <c r="A16" s="59">
+      <c r="A16" s="61">
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4088,7 +4096,7 @@
       </c>
     </row>
     <row r="17" s="46" customFormat="1" spans="1:2">
-      <c r="A17" s="59">
+      <c r="A17" s="61">
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4096,7 +4104,7 @@
       </c>
     </row>
     <row r="18" s="46" customFormat="1" spans="1:2">
-      <c r="A18" s="59">
+      <c r="A18" s="61">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4104,7 +4112,7 @@
       </c>
     </row>
     <row r="19" s="46" customFormat="1" ht="30" spans="1:2">
-      <c r="A19" s="59">
+      <c r="A19" s="61">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4112,7 +4120,7 @@
       </c>
     </row>
     <row r="20" s="46" customFormat="1" spans="1:2">
-      <c r="A20" s="59">
+      <c r="A20" s="61">
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4120,20 +4128,20 @@
       </c>
     </row>
     <row r="21" s="46" customFormat="1" spans="7:7">
-      <c r="G21" s="52"/>
+      <c r="G21" s="54"/>
     </row>
     <row r="22" s="46" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="61" t="s">
-        <v>148</v>
+      <c r="D22" s="63" t="s">
+        <v>146</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>39</v>
@@ -4141,93 +4149,93 @@
       <c r="F22" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" s="46" customFormat="1" ht="30" spans="1:7">
       <c r="A23" s="50">
         <v>1</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="52"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" s="46" customFormat="1" ht="30" spans="1:6">
       <c r="A24" s="49">
         <v>2</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="E24" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="49"/>
+    </row>
+    <row r="25" s="46" customFormat="1" spans="1:6">
+      <c r="A25" s="68">
+        <v>3</v>
+      </c>
+      <c r="B25" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="C25" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="D25" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="49"/>
-    </row>
-    <row r="25" s="46" customFormat="1" spans="1:6">
-      <c r="A25" s="66">
-        <v>3</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="49" t="s">
+      <c r="F25" s="49"/>
+    </row>
+    <row r="26" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="70">
+        <v>4</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D26" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E26" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="49"/>
-    </row>
-    <row r="26" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="68">
-        <v>4</v>
-      </c>
-      <c r="B26" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="50" t="s">
+      <c r="F26" s="49"/>
+    </row>
+    <row r="27" s="46" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
+      <c r="A27" s="71"/>
+      <c r="B27" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="C27" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="49"/>
-    </row>
-    <row r="27" s="46" customFormat="1" ht="35.25" customHeight="1" spans="1:6">
-      <c r="A27" s="69"/>
-      <c r="B27" s="67" t="s">
+      <c r="D27" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="65" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="49"/>
@@ -4245,17 +4253,17 @@
       <c r="D28" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="65" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="49"/>
     </row>
     <row r="29" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="66">
+      <c r="A29" s="68">
         <v>6</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="49" t="s">
         <v>69</v>
@@ -4263,98 +4271,98 @@
       <c r="D29" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="65" t="s">
         <v>43</v>
       </c>
       <c r="F29" s="49"/>
     </row>
     <row r="30" s="46" customFormat="1" spans="1:6">
-      <c r="A30" s="69"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="E30" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="61"/>
+    </row>
+    <row r="31" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A31" s="68">
+        <v>7</v>
+      </c>
+      <c r="B31" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="C31" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="D31" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="59"/>
-    </row>
-    <row r="31" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A31" s="66">
-        <v>7</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="49" t="s">
+      <c r="F31" s="61"/>
+    </row>
+    <row r="32" s="46" customFormat="1" spans="1:6">
+      <c r="A32" s="71">
+        <v>8</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="C32" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="D32" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="59"/>
-    </row>
-    <row r="32" s="46" customFormat="1" spans="1:6">
-      <c r="A32" s="69">
-        <v>8</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="50" t="s">
+      <c r="F32" s="61"/>
+    </row>
+    <row r="33" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A33" s="68">
+        <v>9</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="C33" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="D33" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="59"/>
-    </row>
-    <row r="33" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="66">
-        <v>9</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="49" t="s">
+      <c r="F33" s="61"/>
+    </row>
+    <row r="34" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="71">
+        <v>10</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="C34" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="D34" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="69">
-        <v>10</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="59"/>
+      <c r="F34" s="61"/>
     </row>
     <row r="35" s="46" customFormat="1" ht="45" spans="1:6">
       <c r="A35" s="49">
@@ -4369,115 +4377,117 @@
       <c r="D35" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="59"/>
+      <c r="F35" s="61"/>
     </row>
     <row r="36" s="46" customFormat="1" ht="30" spans="1:6">
       <c r="A36" s="49">
         <v>12</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" s="63" t="s">
+      <c r="D36" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="61"/>
     </row>
     <row r="37" s="46" customFormat="1" spans="1:6">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
       <c r="D37" s="49"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
     </row>
     <row r="38" s="46" customFormat="1" spans="1:6">
-      <c r="A38" s="71"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
+      <c r="A38" s="73"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
     </row>
     <row r="39" s="46" customFormat="1" spans="1:6">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
+      <c r="A39" s="73"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
     </row>
     <row r="40" s="46" customFormat="1" spans="1:6">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
     </row>
     <row r="41" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A41" s="77">
+      <c r="A41" s="79">
         <v>13</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="55"/>
+    </row>
+    <row r="42" s="46" customFormat="1" ht="30" spans="1:6">
+      <c r="A42" s="79">
+        <v>14</v>
+      </c>
+      <c r="B42" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="55"/>
+    </row>
+    <row r="43" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A43" s="81">
+        <v>15</v>
+      </c>
+      <c r="B43" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="D41" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="53"/>
-    </row>
-    <row r="42" s="46" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="77">
-        <v>14</v>
-      </c>
-      <c r="B42" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="53"/>
-    </row>
-    <row r="43" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A43" s="79">
-        <v>15</v>
-      </c>
-      <c r="B43" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="81" t="s">
+      <c r="E43" s="82" t="s">
         <v>181</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="F43" s="55" t="s">
         <v>182</v>
-      </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="53" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="44" s="46" customFormat="1" spans="1:6">
@@ -4489,24 +4499,24 @@
       <c r="F44" s="4"/>
     </row>
     <row r="45" s="46" customFormat="1" spans="1:6">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
     </row>
     <row r="46" s="47" customFormat="1" ht="30" spans="1:6">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="61" t="s">
+      <c r="D46" s="63" t="s">
         <v>122</v>
       </c>
       <c r="E46" s="48" t="s">
@@ -4517,140 +4527,140 @@
       </c>
     </row>
     <row r="47" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A47" s="83">
+      <c r="A47" s="85">
         <v>1</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="86"/>
+    </row>
+    <row r="48" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A48" s="55"/>
+      <c r="B48" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E48" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="84"/>
-    </row>
-    <row r="48" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="53" t="s">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A50" s="55">
+        <v>2</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A51" s="55"/>
+      <c r="B51" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="53" t="s">
+      <c r="D51" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A52" s="55"/>
+      <c r="B52" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" s="46" customFormat="1" ht="45" spans="1:6">
+      <c r="A53" s="55">
+        <v>3</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A50" s="53">
-        <v>2</v>
-      </c>
-      <c r="B50" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A53" s="53">
-        <v>3</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="D53" s="85"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="85"/>
+      <c r="D54" s="87"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" s="46" customFormat="1" ht="45" spans="1:6">
-      <c r="A55" s="53"/>
-      <c r="B55" s="53" t="s">
+      <c r="A55" s="55"/>
+      <c r="B55" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="D55" s="85"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
@@ -4675,7 +4685,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4695,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="26" t="s">
@@ -4748,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="37">
@@ -4763,7 +4773,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="39"/>
@@ -4783,7 +4793,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="30"/>
@@ -4823,7 +4833,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>17</v>
@@ -4835,10 +4845,10 @@
         <v>122</v>
       </c>
       <c r="F12" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="42" t="s">
         <v>192</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="13" s="25" customFormat="1" ht="45" spans="1:7">
@@ -4846,13 +4856,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="D13" s="44" t="s">
         <v>195</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>196</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -4863,13 +4873,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="D14" s="44" t="s">
         <v>198</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>199</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -4935,14 +4945,14 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4993,13 +5003,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="8"/>
       <c r="F5" s="3" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
